--- a/data/pca/factorExposure/factorExposure_2016-01-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01601288551540216</v>
+        <v>0.01678419749701627</v>
       </c>
       <c r="C2">
-        <v>-0.02993997776795391</v>
+        <v>-0.03317160383689999</v>
       </c>
       <c r="D2">
-        <v>-0.09058179235759029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1166921633905428</v>
+      </c>
+      <c r="E2">
+        <v>0.07990689084288617</v>
+      </c>
+      <c r="F2">
+        <v>-0.008815263504745138</v>
+      </c>
+      <c r="G2">
+        <v>-0.05357982866666443</v>
+      </c>
+      <c r="H2">
+        <v>-0.0960625357251204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01453842091395944</v>
+        <v>0.008438976875712004</v>
       </c>
       <c r="C3">
-        <v>-0.05518550921414581</v>
+        <v>-0.03463919329110644</v>
       </c>
       <c r="D3">
-        <v>-0.1450307430222971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08004707164503491</v>
+      </c>
+      <c r="E3">
+        <v>0.08585384300807047</v>
+      </c>
+      <c r="F3">
+        <v>-0.04117644439913429</v>
+      </c>
+      <c r="G3">
+        <v>-0.09010594124060563</v>
+      </c>
+      <c r="H3">
+        <v>-0.02271711694268191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04711408677991567</v>
+        <v>0.05280913200490543</v>
       </c>
       <c r="C4">
-        <v>-0.02594090214856488</v>
+        <v>-0.06157877073896941</v>
       </c>
       <c r="D4">
-        <v>-0.1228787539736881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1362621011992814</v>
+      </c>
+      <c r="E4">
+        <v>0.06158026768733797</v>
+      </c>
+      <c r="F4">
+        <v>-0.01900404519264706</v>
+      </c>
+      <c r="G4">
+        <v>0.02396504818849622</v>
+      </c>
+      <c r="H4">
+        <v>0.0288089493059315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0442166628306991</v>
+        <v>0.04075461720655143</v>
       </c>
       <c r="C6">
-        <v>-0.001344104018293345</v>
+        <v>-0.02525096016258415</v>
       </c>
       <c r="D6">
-        <v>-0.1237355583828073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1260828467760411</v>
+      </c>
+      <c r="E6">
+        <v>0.04108562963903362</v>
+      </c>
+      <c r="F6">
+        <v>-0.01408323157112175</v>
+      </c>
+      <c r="G6">
+        <v>-0.01707529158513565</v>
+      </c>
+      <c r="H6">
+        <v>-0.006757656469525602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02097689626516898</v>
+        <v>0.01521754011569712</v>
       </c>
       <c r="C7">
-        <v>-0.006158836696036454</v>
+        <v>-0.03000787823598965</v>
       </c>
       <c r="D7">
-        <v>-0.08678577680149333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09370471609900982</v>
+      </c>
+      <c r="E7">
+        <v>0.04355248863017159</v>
+      </c>
+      <c r="F7">
+        <v>-0.01441889294675439</v>
+      </c>
+      <c r="G7">
+        <v>0.01679498945965769</v>
+      </c>
+      <c r="H7">
+        <v>-0.1043695099262921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009776539262205054</v>
+        <v>0.008021896859914408</v>
       </c>
       <c r="C8">
-        <v>-0.0289332186351521</v>
+        <v>-0.03679698310719994</v>
       </c>
       <c r="D8">
-        <v>-0.06725557326913513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07490550375398913</v>
+      </c>
+      <c r="E8">
+        <v>0.03750048138904903</v>
+      </c>
+      <c r="F8">
+        <v>-0.03526244899728954</v>
+      </c>
+      <c r="G8">
+        <v>-0.008143995726717484</v>
+      </c>
+      <c r="H8">
+        <v>-0.03088464326487173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03851961490111448</v>
+        <v>0.04028456146478473</v>
       </c>
       <c r="C9">
-        <v>-0.02812493329452677</v>
+        <v>-0.05679158157323427</v>
       </c>
       <c r="D9">
-        <v>-0.1057648243557116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1170255436023633</v>
+      </c>
+      <c r="E9">
+        <v>0.04703793150378763</v>
+      </c>
+      <c r="F9">
+        <v>0.0007740581365639526</v>
+      </c>
+      <c r="G9">
+        <v>0.01606652753817013</v>
+      </c>
+      <c r="H9">
+        <v>-0.006973401322618289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09819770764635856</v>
+        <v>0.1330906809961056</v>
       </c>
       <c r="C10">
-        <v>0.1978997030641102</v>
+        <v>0.1915309507280422</v>
       </c>
       <c r="D10">
-        <v>0.01098470483372972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00362308890617547</v>
+      </c>
+      <c r="E10">
+        <v>0.05240872051810062</v>
+      </c>
+      <c r="F10">
+        <v>-0.01419571697018444</v>
+      </c>
+      <c r="G10">
+        <v>0.03984901553484662</v>
+      </c>
+      <c r="H10">
+        <v>0.007445497877325733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03322614385517259</v>
+        <v>0.02844759892465095</v>
       </c>
       <c r="C11">
-        <v>-0.03455245827994612</v>
+        <v>-0.04259096397503063</v>
       </c>
       <c r="D11">
-        <v>-0.06216340512767657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06031091615487853</v>
+      </c>
+      <c r="E11">
+        <v>0.007038185502407619</v>
+      </c>
+      <c r="F11">
+        <v>-0.006304356035427421</v>
+      </c>
+      <c r="G11">
+        <v>0.001527395838708853</v>
+      </c>
+      <c r="H11">
+        <v>-0.05171737441265743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03781902352441027</v>
+        <v>0.03268580636676086</v>
       </c>
       <c r="C12">
-        <v>-0.03351577784612726</v>
+        <v>-0.04370183995357838</v>
       </c>
       <c r="D12">
-        <v>-0.05985713343530794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05715201530276827</v>
+      </c>
+      <c r="E12">
+        <v>0.01832073334829765</v>
+      </c>
+      <c r="F12">
+        <v>-0.001154551858466601</v>
+      </c>
+      <c r="G12">
+        <v>0.003383672878430647</v>
+      </c>
+      <c r="H12">
+        <v>-0.06189057478862912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01330890276932707</v>
+        <v>0.01892302740630624</v>
       </c>
       <c r="C13">
-        <v>-0.0224885142848033</v>
+        <v>-0.03777929529821263</v>
       </c>
       <c r="D13">
-        <v>-0.1221942344846632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1420032215882518</v>
+      </c>
+      <c r="E13">
+        <v>0.07520170193780901</v>
+      </c>
+      <c r="F13">
+        <v>-0.02771751788633953</v>
+      </c>
+      <c r="G13">
+        <v>-0.002293963233428742</v>
+      </c>
+      <c r="H13">
+        <v>-0.09194005850143455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01025509845962038</v>
+        <v>0.007055512196666719</v>
       </c>
       <c r="C14">
-        <v>-0.01125301168924745</v>
+        <v>-0.02361485152660706</v>
       </c>
       <c r="D14">
-        <v>-0.07872916321712133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08455905701364015</v>
+      </c>
+      <c r="E14">
+        <v>0.04355498305875154</v>
+      </c>
+      <c r="F14">
+        <v>0.01301426777669371</v>
+      </c>
+      <c r="G14">
+        <v>-0.002925642518498687</v>
+      </c>
+      <c r="H14">
+        <v>-0.09981605531225585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001614120307880608</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0081517000301181</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02720980402134137</v>
+      </c>
+      <c r="E15">
+        <v>0.006900648982147718</v>
+      </c>
+      <c r="F15">
+        <v>0.003118938716839916</v>
+      </c>
+      <c r="G15">
+        <v>-0.007524837110859784</v>
+      </c>
+      <c r="H15">
+        <v>-0.01214137067175896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03513037457603493</v>
+        <v>0.02922749006701567</v>
       </c>
       <c r="C16">
-        <v>-0.0362765258273351</v>
+        <v>-0.04347208701474258</v>
       </c>
       <c r="D16">
-        <v>-0.06766754818511926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06207746906826623</v>
+      </c>
+      <c r="E16">
+        <v>0.02098263910423725</v>
+      </c>
+      <c r="F16">
+        <v>0.00649237290290058</v>
+      </c>
+      <c r="G16">
+        <v>-0.002952413877525778</v>
+      </c>
+      <c r="H16">
+        <v>-0.05874274645881286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009014951265950449</v>
+        <v>0.01034587284843906</v>
       </c>
       <c r="C19">
-        <v>-0.01700454055037033</v>
+        <v>-0.0226506013539606</v>
       </c>
       <c r="D19">
-        <v>-0.1669950642489509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1310633311345713</v>
+      </c>
+      <c r="E19">
+        <v>0.0730872666214122</v>
+      </c>
+      <c r="F19">
+        <v>0.02743517148506732</v>
+      </c>
+      <c r="G19">
+        <v>-0.01595048668627792</v>
+      </c>
+      <c r="H19">
+        <v>-0.05319781031761702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01821153438945597</v>
+        <v>0.0153612709040016</v>
       </c>
       <c r="C20">
-        <v>-0.01537001089744857</v>
+        <v>-0.03180310473042183</v>
       </c>
       <c r="D20">
-        <v>-0.08521624880163184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09469691027202795</v>
+      </c>
+      <c r="E20">
+        <v>0.06206436333010801</v>
+      </c>
+      <c r="F20">
+        <v>0.005628516369975903</v>
+      </c>
+      <c r="G20">
+        <v>0.0004338064742867128</v>
+      </c>
+      <c r="H20">
+        <v>-0.05523053268766426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.008958944758499997</v>
+        <v>0.01402704833426483</v>
       </c>
       <c r="C21">
-        <v>-0.01472922522839776</v>
+        <v>-0.03536661846496311</v>
       </c>
       <c r="D21">
-        <v>-0.1229824571439169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1359144675383329</v>
+      </c>
+      <c r="E21">
+        <v>0.09942279020181068</v>
+      </c>
+      <c r="F21">
+        <v>0.01094136354291909</v>
+      </c>
+      <c r="G21">
+        <v>0.03610994159436141</v>
+      </c>
+      <c r="H21">
+        <v>-0.107607526213602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001869690601795008</v>
+        <v>0.005021162235061635</v>
       </c>
       <c r="C22">
-        <v>-0.01247210045426439</v>
+        <v>-0.03877887188461886</v>
       </c>
       <c r="D22">
-        <v>-0.06240054302811924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1240083429554302</v>
+      </c>
+      <c r="E22">
+        <v>0.03126111609906269</v>
+      </c>
+      <c r="F22">
+        <v>-0.07558445726001571</v>
+      </c>
+      <c r="G22">
+        <v>-0.0603629117953861</v>
+      </c>
+      <c r="H22">
+        <v>0.02894762043033312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001902843519920353</v>
+        <v>0.0051128591793539</v>
       </c>
       <c r="C23">
-        <v>-0.01250553457813027</v>
+        <v>-0.03922447333773997</v>
       </c>
       <c r="D23">
-        <v>-0.06195220381875419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1234656315205316</v>
+      </c>
+      <c r="E23">
+        <v>0.03147186177415525</v>
+      </c>
+      <c r="F23">
+        <v>-0.07550825632280485</v>
+      </c>
+      <c r="G23">
+        <v>-0.05949862643488479</v>
+      </c>
+      <c r="H23">
+        <v>0.02919109998794571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03404520019721327</v>
+        <v>0.03109703486574033</v>
       </c>
       <c r="C24">
-        <v>-0.03883092783669183</v>
+        <v>-0.052874327255282</v>
       </c>
       <c r="D24">
-        <v>-0.06958841049459662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06662549274373528</v>
+      </c>
+      <c r="E24">
+        <v>0.02452108744171625</v>
+      </c>
+      <c r="F24">
+        <v>0.004376957470541612</v>
+      </c>
+      <c r="G24">
+        <v>0.00731584367448315</v>
+      </c>
+      <c r="H24">
+        <v>-0.06796173188351082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04128305372468828</v>
+        <v>0.03597200719743759</v>
       </c>
       <c r="C25">
-        <v>-0.043603192030488</v>
+        <v>-0.05220039777386228</v>
       </c>
       <c r="D25">
-        <v>-0.06955301158041186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0635874331583383</v>
+      </c>
+      <c r="E25">
+        <v>0.024615527553738</v>
+      </c>
+      <c r="F25">
+        <v>-0.007580113275589335</v>
+      </c>
+      <c r="G25">
+        <v>0.01346952650395954</v>
+      </c>
+      <c r="H25">
+        <v>-0.05557105199051567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02249576446525665</v>
+        <v>0.02094112156251759</v>
       </c>
       <c r="C26">
-        <v>-0.000328403244939703</v>
+        <v>-0.01590569858360029</v>
       </c>
       <c r="D26">
-        <v>-0.05165674517386759</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06433002337105459</v>
+      </c>
+      <c r="E26">
+        <v>0.0313583173733895</v>
+      </c>
+      <c r="F26">
+        <v>0.004905603993886096</v>
+      </c>
+      <c r="G26">
+        <v>-0.00581870249079748</v>
+      </c>
+      <c r="H26">
+        <v>-0.05680905025934848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1350053034712465</v>
+        <v>0.1869344145701015</v>
       </c>
       <c r="C28">
-        <v>0.2723205634171232</v>
+        <v>0.2565024563015107</v>
       </c>
       <c r="D28">
-        <v>0.05491624788696934</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01784434843628224</v>
+      </c>
+      <c r="E28">
+        <v>0.07185445672293786</v>
+      </c>
+      <c r="F28">
+        <v>-0.0002834599999582606</v>
+      </c>
+      <c r="G28">
+        <v>0.07823790935926948</v>
+      </c>
+      <c r="H28">
+        <v>-0.006384264640652317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004068608257278864</v>
+        <v>0.006027699612584928</v>
       </c>
       <c r="C29">
-        <v>-0.01153552883444908</v>
+        <v>-0.02272895812772392</v>
       </c>
       <c r="D29">
-        <v>-0.06226609056761676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07829864200262653</v>
+      </c>
+      <c r="E29">
+        <v>0.04574823091588665</v>
+      </c>
+      <c r="F29">
+        <v>-0.001010393042253956</v>
+      </c>
+      <c r="G29">
+        <v>0.01357273664287907</v>
+      </c>
+      <c r="H29">
+        <v>-0.1001620581698254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0422190711649349</v>
+        <v>0.0427813781578367</v>
       </c>
       <c r="C30">
-        <v>-0.02402737727414433</v>
+        <v>-0.05629684413054688</v>
       </c>
       <c r="D30">
-        <v>-0.1588725838280925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.174103766979692</v>
+      </c>
+      <c r="E30">
+        <v>0.03450592548777195</v>
+      </c>
+      <c r="F30">
+        <v>-0.003463771040955772</v>
+      </c>
+      <c r="G30">
+        <v>-0.04263724090547572</v>
+      </c>
+      <c r="H30">
+        <v>-0.01065932462898656</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06590724895824204</v>
+        <v>0.05715930368984019</v>
       </c>
       <c r="C31">
-        <v>-0.04551846371492954</v>
+        <v>-0.07145904542906086</v>
       </c>
       <c r="D31">
-        <v>-0.06266116570170403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05286572255066439</v>
+      </c>
+      <c r="E31">
+        <v>0.04166840177449822</v>
+      </c>
+      <c r="F31">
+        <v>-0.0414138589374362</v>
+      </c>
+      <c r="G31">
+        <v>0.007079890875058716</v>
+      </c>
+      <c r="H31">
+        <v>-0.02652793546645478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008285871177836559</v>
+        <v>0.008826326013889189</v>
       </c>
       <c r="C32">
-        <v>0.004392163666060631</v>
+        <v>-0.0132242415282518</v>
       </c>
       <c r="D32">
-        <v>-0.05278766885052553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09104661989313532</v>
+      </c>
+      <c r="E32">
+        <v>0.09324150054759271</v>
+      </c>
+      <c r="F32">
+        <v>0.00131245249412984</v>
+      </c>
+      <c r="G32">
+        <v>0.05322130178265261</v>
+      </c>
+      <c r="H32">
+        <v>-0.09403585329102809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02470925987827736</v>
+        <v>0.02384888190912534</v>
       </c>
       <c r="C33">
-        <v>-0.01837069344724637</v>
+        <v>-0.04139662903452176</v>
       </c>
       <c r="D33">
-        <v>-0.1327587347715859</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.133441007739749</v>
+      </c>
+      <c r="E33">
+        <v>0.05840445672554957</v>
+      </c>
+      <c r="F33">
+        <v>-0.0170340239509352</v>
+      </c>
+      <c r="G33">
+        <v>0.0002908577824386657</v>
+      </c>
+      <c r="H33">
+        <v>-0.06335230897365902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.031017456434103</v>
+        <v>0.02831206229071613</v>
       </c>
       <c r="C34">
-        <v>-0.05371039268064155</v>
+        <v>-0.06049557233378478</v>
       </c>
       <c r="D34">
-        <v>-0.06740902835521226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06119549900763431</v>
+      </c>
+      <c r="E34">
+        <v>0.006156360067895667</v>
+      </c>
+      <c r="F34">
+        <v>0.003355679813325599</v>
+      </c>
+      <c r="G34">
+        <v>0.00965852197384158</v>
+      </c>
+      <c r="H34">
+        <v>-0.07390091705973396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005438216424588324</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0002005381418832881</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.002930993329122038</v>
+      </c>
+      <c r="E35">
+        <v>0.0006750177121843103</v>
+      </c>
+      <c r="F35">
+        <v>0.0001204671572909051</v>
+      </c>
+      <c r="G35">
+        <v>-0.0001207950925758276</v>
+      </c>
+      <c r="H35">
+        <v>-0.00283146414954185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0205995645644668</v>
+        <v>0.01840722132190753</v>
       </c>
       <c r="C36">
-        <v>0.002195273829350415</v>
+        <v>-0.01459157501367755</v>
       </c>
       <c r="D36">
-        <v>-0.06884998147005167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07672951087072345</v>
+      </c>
+      <c r="E36">
+        <v>0.04056544744183452</v>
+      </c>
+      <c r="F36">
+        <v>0.003640508575330007</v>
+      </c>
+      <c r="G36">
+        <v>0.009671903662856264</v>
+      </c>
+      <c r="H36">
+        <v>-0.05146812855429777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02647676807456894</v>
+        <v>0.02191244314618453</v>
       </c>
       <c r="C38">
-        <v>-0.01663330642768482</v>
+        <v>-0.02127710753707352</v>
       </c>
       <c r="D38">
-        <v>-0.05481467116956534</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05942608229000657</v>
+      </c>
+      <c r="E38">
+        <v>0.0442850862098484</v>
+      </c>
+      <c r="F38">
+        <v>0.003971898501226694</v>
+      </c>
+      <c r="G38">
+        <v>-0.0352746269830814</v>
+      </c>
+      <c r="H38">
+        <v>-0.0357410600321458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0404035756619177</v>
+        <v>0.0365810056058892</v>
       </c>
       <c r="C39">
-        <v>-0.04535885480500264</v>
+        <v>-0.06233937518012456</v>
       </c>
       <c r="D39">
-        <v>-0.09079171423492143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1026874364826618</v>
+      </c>
+      <c r="E39">
+        <v>0.02229748579203729</v>
+      </c>
+      <c r="F39">
+        <v>0.02173789446798349</v>
+      </c>
+      <c r="G39">
+        <v>-0.006930600316308547</v>
+      </c>
+      <c r="H39">
+        <v>-0.08656793479552011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01607066640103309</v>
+        <v>0.01443627381352155</v>
       </c>
       <c r="C40">
-        <v>-0.0354335391561368</v>
+        <v>-0.03528940710192679</v>
       </c>
       <c r="D40">
-        <v>-0.07670226393259107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08396966113181402</v>
+      </c>
+      <c r="E40">
+        <v>0.08265760706055901</v>
+      </c>
+      <c r="F40">
+        <v>-0.0521666556890047</v>
+      </c>
+      <c r="G40">
+        <v>-0.03078444333554585</v>
+      </c>
+      <c r="H40">
+        <v>-0.1558563370545252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02545755024677669</v>
+        <v>0.02282407840823912</v>
       </c>
       <c r="C41">
-        <v>0.01019555688692239</v>
+        <v>-0.008169696180143541</v>
       </c>
       <c r="D41">
-        <v>-0.06800104228073435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0582440807424921</v>
+      </c>
+      <c r="E41">
+        <v>0.05561649845969906</v>
+      </c>
+      <c r="F41">
+        <v>0.0005196271697845069</v>
+      </c>
+      <c r="G41">
+        <v>-0.006362432704644197</v>
+      </c>
+      <c r="H41">
+        <v>-0.04273411226450423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03495177637091232</v>
+        <v>0.02546795819787675</v>
       </c>
       <c r="C43">
-        <v>0.0002523005404890528</v>
+        <v>-0.01791943471035794</v>
       </c>
       <c r="D43">
-        <v>-0.1082452287285685</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08897929604602123</v>
+      </c>
+      <c r="E43">
+        <v>0.04363300119209012</v>
+      </c>
+      <c r="F43">
+        <v>-0.004892985959152487</v>
+      </c>
+      <c r="G43">
+        <v>-0.01009460257357183</v>
+      </c>
+      <c r="H43">
+        <v>-0.05994227260339852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01219960282024522</v>
+        <v>0.01650280239918749</v>
       </c>
       <c r="C44">
-        <v>-0.03281944348526993</v>
+        <v>-0.04153235981787495</v>
       </c>
       <c r="D44">
-        <v>-0.08184275485144452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09582937206639383</v>
+      </c>
+      <c r="E44">
+        <v>0.07926175795463387</v>
+      </c>
+      <c r="F44">
+        <v>0.001278115062809263</v>
+      </c>
+      <c r="G44">
+        <v>0.009997455558317356</v>
+      </c>
+      <c r="H44">
+        <v>-0.07004450106706253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01887001053226738</v>
+        <v>0.01603344576887241</v>
       </c>
       <c r="C46">
-        <v>-0.01184746967081404</v>
+        <v>-0.02933649538531121</v>
       </c>
       <c r="D46">
-        <v>-0.07177629311721022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08805167102478116</v>
+      </c>
+      <c r="E46">
+        <v>0.04928634009346718</v>
+      </c>
+      <c r="F46">
+        <v>0.02140046612139846</v>
+      </c>
+      <c r="G46">
+        <v>0.02103186629285281</v>
+      </c>
+      <c r="H46">
+        <v>-0.0997624858033186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09244286847823953</v>
+        <v>0.08605142542320927</v>
       </c>
       <c r="C47">
-        <v>-0.06382200640287339</v>
+        <v>-0.08808114880617697</v>
       </c>
       <c r="D47">
-        <v>-0.0400754850474879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03296359374325918</v>
+      </c>
+      <c r="E47">
+        <v>0.03864938464936789</v>
+      </c>
+      <c r="F47">
+        <v>-0.02330347076200811</v>
+      </c>
+      <c r="G47">
+        <v>0.05819271473123307</v>
+      </c>
+      <c r="H47">
+        <v>-0.005883216567894716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02067959052044902</v>
+        <v>0.01919641630696668</v>
       </c>
       <c r="C48">
-        <v>-0.001739655994704582</v>
+        <v>-0.01866574859332609</v>
       </c>
       <c r="D48">
-        <v>-0.06776192253085547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07855758807048616</v>
+      </c>
+      <c r="E48">
+        <v>0.0564644826283903</v>
+      </c>
+      <c r="F48">
+        <v>0.01362703797212543</v>
+      </c>
+      <c r="G48">
+        <v>0.005555008956622364</v>
+      </c>
+      <c r="H48">
+        <v>-0.0524505112830996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07726559779926977</v>
+        <v>0.06152260673640362</v>
       </c>
       <c r="C50">
-        <v>-0.05711132328109773</v>
+        <v>-0.06939907237517916</v>
       </c>
       <c r="D50">
-        <v>-0.06817443603056124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05859500232692358</v>
+      </c>
+      <c r="E50">
+        <v>0.04733197171397306</v>
+      </c>
+      <c r="F50">
+        <v>-0.04279183110512209</v>
+      </c>
+      <c r="G50">
+        <v>-0.0093629766009341</v>
+      </c>
+      <c r="H50">
+        <v>-0.02915859824037187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007344099350292906</v>
+        <v>0.007249007874878178</v>
       </c>
       <c r="C51">
-        <v>-0.009786262554672654</v>
+        <v>-0.01431770553380591</v>
       </c>
       <c r="D51">
-        <v>-0.0794021256545501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08711377463314751</v>
+      </c>
+      <c r="E51">
+        <v>0.03335880707763218</v>
+      </c>
+      <c r="F51">
+        <v>0.003687646846148883</v>
+      </c>
+      <c r="G51">
+        <v>-0.01295484016909665</v>
+      </c>
+      <c r="H51">
+        <v>-0.07961009646473516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07537344157975231</v>
+        <v>0.08673608805226993</v>
       </c>
       <c r="C53">
-        <v>-0.0868601554273449</v>
+        <v>-0.09995494335611846</v>
       </c>
       <c r="D53">
-        <v>-0.0191142801697542</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004589158563841363</v>
+      </c>
+      <c r="E53">
+        <v>0.09759733425711978</v>
+      </c>
+      <c r="F53">
+        <v>-0.03063493735880347</v>
+      </c>
+      <c r="G53">
+        <v>0.0965937351477151</v>
+      </c>
+      <c r="H53">
+        <v>0.02339849024924559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03408434403786127</v>
+        <v>0.02689994602905419</v>
       </c>
       <c r="C54">
-        <v>-0.02010990592988829</v>
+        <v>-0.03491836826694946</v>
       </c>
       <c r="D54">
-        <v>-0.08295510676525181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08834207970996728</v>
+      </c>
+      <c r="E54">
+        <v>0.0486210455449899</v>
+      </c>
+      <c r="F54">
+        <v>0.01700518391018869</v>
+      </c>
+      <c r="G54">
+        <v>-0.006499648645964091</v>
+      </c>
+      <c r="H54">
+        <v>-0.1096415450386342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08583352488191212</v>
+        <v>0.08474820291432744</v>
       </c>
       <c r="C55">
-        <v>-0.06534986041255247</v>
+        <v>-0.08064405987631519</v>
       </c>
       <c r="D55">
-        <v>0.001905263303928103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0126384406601436</v>
+      </c>
+      <c r="E55">
+        <v>0.05805041947471676</v>
+      </c>
+      <c r="F55">
+        <v>-0.03252925573734949</v>
+      </c>
+      <c r="G55">
+        <v>0.04612685245085581</v>
+      </c>
+      <c r="H55">
+        <v>0.02397752179081583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1343560464424428</v>
+        <v>0.132723858673631</v>
       </c>
       <c r="C56">
-        <v>-0.1005685413207794</v>
+        <v>-0.1250954106944012</v>
       </c>
       <c r="D56">
-        <v>-0.007182469336755547</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0133720292658935</v>
+      </c>
+      <c r="E56">
+        <v>0.05803001987370682</v>
+      </c>
+      <c r="F56">
+        <v>-0.02009173818679172</v>
+      </c>
+      <c r="G56">
+        <v>0.06665773029366021</v>
+      </c>
+      <c r="H56">
+        <v>0.02193567302702142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.03591143761920792</v>
+        <v>0.03731522880238303</v>
       </c>
       <c r="C58">
-        <v>0.03765124041267796</v>
+        <v>-0.01684565369252683</v>
       </c>
       <c r="D58">
-        <v>-0.3938077453316763</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3767886558059642</v>
+      </c>
+      <c r="E58">
+        <v>0.2171775156671513</v>
+      </c>
+      <c r="F58">
+        <v>-0.1286513479653749</v>
+      </c>
+      <c r="G58">
+        <v>-0.3818451623293883</v>
+      </c>
+      <c r="H58">
+        <v>0.4249553766860006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1379951547816972</v>
+        <v>0.1695015241649029</v>
       </c>
       <c r="C59">
-        <v>0.1944523952582038</v>
+        <v>0.1726083681652557</v>
       </c>
       <c r="D59">
-        <v>-0.00865256115278343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04557661435490159</v>
+      </c>
+      <c r="E59">
+        <v>0.01856133643763759</v>
+      </c>
+      <c r="F59">
+        <v>0.03572758346446355</v>
+      </c>
+      <c r="G59">
+        <v>-0.0007602797382000612</v>
+      </c>
+      <c r="H59">
+        <v>0.02109564880136047</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2584053037211755</v>
+        <v>0.2337695121540815</v>
       </c>
       <c r="C60">
-        <v>-0.05790733309944418</v>
+        <v>-0.09544635256696939</v>
       </c>
       <c r="D60">
-        <v>-0.1653168129713317</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1259967533473164</v>
+      </c>
+      <c r="E60">
+        <v>-0.3567166561213923</v>
+      </c>
+      <c r="F60">
+        <v>-0.07521740396181545</v>
+      </c>
+      <c r="G60">
+        <v>0.02322357903144595</v>
+      </c>
+      <c r="H60">
+        <v>0.05897293929255649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04589704026140582</v>
+        <v>0.04148358917087248</v>
       </c>
       <c r="C61">
-        <v>-0.04469921699076312</v>
+        <v>-0.05764931111114174</v>
       </c>
       <c r="D61">
-        <v>-0.1020811648798334</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09513980741558503</v>
+      </c>
+      <c r="E61">
+        <v>0.02047863417626068</v>
+      </c>
+      <c r="F61">
+        <v>0.009862948150954679</v>
+      </c>
+      <c r="G61">
+        <v>0.01299213959989362</v>
+      </c>
+      <c r="H61">
+        <v>-0.07732640616535302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01532378985179228</v>
+        <v>0.01563564011789286</v>
       </c>
       <c r="C63">
-        <v>-0.01190581997493279</v>
+        <v>-0.02956129233707509</v>
       </c>
       <c r="D63">
-        <v>-0.05694519211113985</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07014767253006195</v>
+      </c>
+      <c r="E63">
+        <v>0.05153541165182429</v>
+      </c>
+      <c r="F63">
+        <v>-0.02429914769342201</v>
+      </c>
+      <c r="G63">
+        <v>-0.01206912605786266</v>
+      </c>
+      <c r="H63">
+        <v>-0.04234753222109802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05501580543882204</v>
+        <v>0.05485602783890298</v>
       </c>
       <c r="C64">
-        <v>-0.0588786982285719</v>
+        <v>-0.07694297745902005</v>
       </c>
       <c r="D64">
-        <v>-0.06573115283744874</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05578100886806197</v>
+      </c>
+      <c r="E64">
+        <v>0.03857721592940827</v>
+      </c>
+      <c r="F64">
+        <v>0.01903485230607331</v>
+      </c>
+      <c r="G64">
+        <v>0.04238819942850176</v>
+      </c>
+      <c r="H64">
+        <v>-0.04839143254005024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06149865269355448</v>
+        <v>0.05244211969805188</v>
       </c>
       <c r="C65">
-        <v>0.002941915200532789</v>
+        <v>-0.02423678702444524</v>
       </c>
       <c r="D65">
-        <v>-0.1099917060478695</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1167670460816045</v>
+      </c>
+      <c r="E65">
+        <v>0.01047777177711852</v>
+      </c>
+      <c r="F65">
+        <v>-0.01811901078787434</v>
+      </c>
+      <c r="G65">
+        <v>-0.04160528996577317</v>
+      </c>
+      <c r="H65">
+        <v>0.0344001877959607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04471152332059656</v>
+        <v>0.04324479208011137</v>
       </c>
       <c r="C66">
-        <v>-0.04512299655886542</v>
+        <v>-0.06907922508019418</v>
       </c>
       <c r="D66">
-        <v>-0.1146934765430219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1284954206221672</v>
+      </c>
+      <c r="E66">
+        <v>0.02543717969717356</v>
+      </c>
+      <c r="F66">
+        <v>0.01297428811452709</v>
+      </c>
+      <c r="G66">
+        <v>-0.01128492282765759</v>
+      </c>
+      <c r="H66">
+        <v>-0.06157199509050509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04484138298613811</v>
+        <v>0.03813432681824738</v>
       </c>
       <c r="C67">
-        <v>-0.0272522177269898</v>
+        <v>-0.02776993588184293</v>
       </c>
       <c r="D67">
-        <v>-0.02891260509329841</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02477312218728783</v>
+      </c>
+      <c r="E67">
+        <v>0.02747415807600133</v>
+      </c>
+      <c r="F67">
+        <v>-0.002617245129196153</v>
+      </c>
+      <c r="G67">
+        <v>-0.02981565439697553</v>
+      </c>
+      <c r="H67">
+        <v>-0.0370884593488375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1703261972391175</v>
+        <v>0.1930953048745931</v>
       </c>
       <c r="C68">
-        <v>0.2624723078207486</v>
+        <v>0.2105523206638409</v>
       </c>
       <c r="D68">
-        <v>0.03442886549953719</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01396086260411919</v>
+      </c>
+      <c r="E68">
+        <v>0.0528686969786593</v>
+      </c>
+      <c r="F68">
+        <v>-0.02420660164560991</v>
+      </c>
+      <c r="G68">
+        <v>-0.008156835132746499</v>
+      </c>
+      <c r="H68">
+        <v>0.009990722866420859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08542953235170117</v>
+        <v>0.07823132725846535</v>
       </c>
       <c r="C69">
-        <v>-0.07596329024517569</v>
+        <v>-0.09782422105620085</v>
       </c>
       <c r="D69">
-        <v>-0.05394185046281372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04673207767480169</v>
+      </c>
+      <c r="E69">
+        <v>0.03117512860524072</v>
+      </c>
+      <c r="F69">
+        <v>-0.001141179433397966</v>
+      </c>
+      <c r="G69">
+        <v>0.03877332422521373</v>
+      </c>
+      <c r="H69">
+        <v>-0.02141933895689424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1410996587850211</v>
+        <v>0.1768732332952141</v>
       </c>
       <c r="C71">
-        <v>0.2490026830949223</v>
+        <v>0.2212096319396522</v>
       </c>
       <c r="D71">
-        <v>-0.006259562223032918</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03567440307445317</v>
+      </c>
+      <c r="E71">
+        <v>0.05113918678024512</v>
+      </c>
+      <c r="F71">
+        <v>-0.02153651511386643</v>
+      </c>
+      <c r="G71">
+        <v>0.03786043461939993</v>
+      </c>
+      <c r="H71">
+        <v>-0.01433706185608458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09828994400495923</v>
+        <v>0.1011195167815067</v>
       </c>
       <c r="C72">
-        <v>-0.03345241313437455</v>
+        <v>-0.06248358363295813</v>
       </c>
       <c r="D72">
-        <v>-0.09469116934248357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0947674810414148</v>
+      </c>
+      <c r="E72">
+        <v>-0.02303121154323545</v>
+      </c>
+      <c r="F72">
+        <v>-0.03034022047506655</v>
+      </c>
+      <c r="G72">
+        <v>0.0217310138579191</v>
+      </c>
+      <c r="H72">
+        <v>-0.02870283432839897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3159737308206538</v>
+        <v>0.2667349369301812</v>
       </c>
       <c r="C73">
-        <v>-0.005736075061324683</v>
+        <v>-0.07826068808034757</v>
       </c>
       <c r="D73">
-        <v>-0.2757986467592748</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2022558257813561</v>
+      </c>
+      <c r="E73">
+        <v>-0.6718935235629655</v>
+      </c>
+      <c r="F73">
+        <v>-0.0800358650551994</v>
+      </c>
+      <c r="G73">
+        <v>-0.0394463012607727</v>
+      </c>
+      <c r="H73">
+        <v>0.1136559883687501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.103386620675797</v>
+        <v>0.1022410350684009</v>
       </c>
       <c r="C74">
-        <v>-0.06509928553605976</v>
+        <v>-0.08865473953796633</v>
       </c>
       <c r="D74">
-        <v>-0.02489512316184919</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.002952039464931474</v>
+      </c>
+      <c r="E74">
+        <v>0.08087943090846091</v>
+      </c>
+      <c r="F74">
+        <v>-0.04458368420469686</v>
+      </c>
+      <c r="G74">
+        <v>0.06184932541326839</v>
+      </c>
+      <c r="H74">
+        <v>0.05679684506234338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2435841390373809</v>
+        <v>0.2380644080760625</v>
       </c>
       <c r="C75">
-        <v>-0.1396715884570061</v>
+        <v>-0.1657123053022826</v>
       </c>
       <c r="D75">
-        <v>0.06582492224056816</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1108120544809368</v>
+      </c>
+      <c r="E75">
+        <v>0.07816474365797818</v>
+      </c>
+      <c r="F75">
+        <v>0.0132882710432702</v>
+      </c>
+      <c r="G75">
+        <v>0.09594180572375127</v>
+      </c>
+      <c r="H75">
+        <v>0.1522758472498469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1244351080494856</v>
+        <v>0.1262878644243233</v>
       </c>
       <c r="C76">
-        <v>-0.09058005692345818</v>
+        <v>-0.1133239321273178</v>
       </c>
       <c r="D76">
-        <v>0.004838803039648175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02076681701277335</v>
+      </c>
+      <c r="E76">
+        <v>0.1142791739883936</v>
+      </c>
+      <c r="F76">
+        <v>-0.0150827891750808</v>
+      </c>
+      <c r="G76">
+        <v>0.06430276477704877</v>
+      </c>
+      <c r="H76">
+        <v>0.02364382127791292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07370642630890376</v>
+        <v>0.06549338592171086</v>
       </c>
       <c r="C77">
-        <v>-0.05344237241594463</v>
+        <v>-0.06597399430921938</v>
       </c>
       <c r="D77">
-        <v>-0.07020247640624655</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1279886664003301</v>
+      </c>
+      <c r="E77">
+        <v>0.1302724716095344</v>
+      </c>
+      <c r="F77">
+        <v>0.289001925293392</v>
+      </c>
+      <c r="G77">
+        <v>-0.03166977125932512</v>
+      </c>
+      <c r="H77">
+        <v>0.1995738057255746</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03647188698352055</v>
+        <v>0.03977503920309582</v>
       </c>
       <c r="C78">
-        <v>-0.03882956099439736</v>
+        <v>-0.05987763996363284</v>
       </c>
       <c r="D78">
-        <v>-0.1108881951417704</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1232845133448516</v>
+      </c>
+      <c r="E78">
+        <v>0.03099698027718827</v>
+      </c>
+      <c r="F78">
+        <v>-0.01711140466350038</v>
+      </c>
+      <c r="G78">
+        <v>0.02931389557303961</v>
+      </c>
+      <c r="H78">
+        <v>-0.04433681665567513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002052889607277025</v>
+        <v>0.04090905092291395</v>
       </c>
       <c r="C79">
-        <v>0.001624453502904173</v>
+        <v>-0.08415831054855301</v>
       </c>
       <c r="D79">
-        <v>-0.0174401599778269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03259326385134751</v>
+      </c>
+      <c r="E79">
+        <v>0.1640546431469928</v>
+      </c>
+      <c r="F79">
+        <v>-0.08168159498545256</v>
+      </c>
+      <c r="G79">
+        <v>0.5538149064858916</v>
+      </c>
+      <c r="H79">
+        <v>0.4878382202132721</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0304807570987448</v>
+        <v>0.02532803636007674</v>
       </c>
       <c r="C80">
-        <v>-0.0126953345109035</v>
+        <v>-0.03463598439833084</v>
       </c>
       <c r="D80">
-        <v>-0.02899125317818652</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03475441672462051</v>
+      </c>
+      <c r="E80">
+        <v>0.01860579503339272</v>
+      </c>
+      <c r="F80">
+        <v>0.0392500102284203</v>
+      </c>
+      <c r="G80">
+        <v>-0.04694880318753519</v>
+      </c>
+      <c r="H80">
+        <v>-0.03999158985437854</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1402564232094577</v>
+        <v>0.13150932612414</v>
       </c>
       <c r="C81">
-        <v>-0.1031358638974414</v>
+        <v>-0.1185828408052341</v>
       </c>
       <c r="D81">
-        <v>0.03951293579968373</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06986599210381662</v>
+      </c>
+      <c r="E81">
+        <v>0.1110311424041102</v>
+      </c>
+      <c r="F81">
+        <v>-0.006394927001016609</v>
+      </c>
+      <c r="G81">
+        <v>0.05518315443503381</v>
+      </c>
+      <c r="H81">
+        <v>0.05022522462252325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2807924232117699</v>
+        <v>0.2478595361947566</v>
       </c>
       <c r="C82">
-        <v>-0.2778610531019758</v>
+        <v>-0.2502028312895663</v>
       </c>
       <c r="D82">
-        <v>0.1900779671942255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2144546162236926</v>
+      </c>
+      <c r="E82">
+        <v>-0.001493166548366225</v>
+      </c>
+      <c r="F82">
+        <v>-0.0425877372769452</v>
+      </c>
+      <c r="G82">
+        <v>0.2412252881513746</v>
+      </c>
+      <c r="H82">
+        <v>-0.468974051360089</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02836386770496347</v>
+        <v>0.02290864581007164</v>
       </c>
       <c r="C83">
-        <v>-0.04803158949453915</v>
+        <v>-0.05118398117762572</v>
       </c>
       <c r="D83">
-        <v>-0.05926903003898847</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05188771118431466</v>
+      </c>
+      <c r="E83">
+        <v>0.006135519529782804</v>
+      </c>
+      <c r="F83">
+        <v>0.02320839705574729</v>
+      </c>
+      <c r="G83">
+        <v>0.002944867575230668</v>
+      </c>
+      <c r="H83">
+        <v>-0.0317587383019325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-6.185064553014578e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004200224585980052</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.008879543933274767</v>
+      </c>
+      <c r="E84">
+        <v>0.01090887772115823</v>
+      </c>
+      <c r="F84">
+        <v>-0.003407401115688551</v>
+      </c>
+      <c r="G84">
+        <v>-0.008263670145923607</v>
+      </c>
+      <c r="H84">
+        <v>-0.005350340080128572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.181430349763419</v>
+        <v>0.1634407663981069</v>
       </c>
       <c r="C85">
-        <v>-0.09746249838005673</v>
+        <v>-0.130667516210757</v>
       </c>
       <c r="D85">
-        <v>0.04830825027133714</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.07934785971653355</v>
+      </c>
+      <c r="E85">
+        <v>0.03772061258160096</v>
+      </c>
+      <c r="F85">
+        <v>-0.03584355855359949</v>
+      </c>
+      <c r="G85">
+        <v>0.09788065229151184</v>
+      </c>
+      <c r="H85">
+        <v>0.1254593343163079</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01225806915689169</v>
+        <v>0.01849605429500589</v>
       </c>
       <c r="C86">
-        <v>-0.02065127654052043</v>
+        <v>-0.02072065996869755</v>
       </c>
       <c r="D86">
-        <v>-0.1388566255907113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1222932480307748</v>
+      </c>
+      <c r="E86">
+        <v>0.01820647578296917</v>
+      </c>
+      <c r="F86">
+        <v>0.008034384743488771</v>
+      </c>
+      <c r="G86">
+        <v>0.03220738822544739</v>
+      </c>
+      <c r="H86">
+        <v>-0.07151609163024621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02576306632006995</v>
+        <v>0.03160671909794188</v>
       </c>
       <c r="C87">
-        <v>0.001826725784153192</v>
+        <v>-0.02450229479586916</v>
       </c>
       <c r="D87">
-        <v>-0.0893828840725214</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1246504305712933</v>
+      </c>
+      <c r="E87">
+        <v>0.08836081169949074</v>
+      </c>
+      <c r="F87">
+        <v>0.01958483374700455</v>
+      </c>
+      <c r="G87">
+        <v>-0.007089189610416188</v>
+      </c>
+      <c r="H87">
+        <v>-0.03537559634617539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08301924655055337</v>
+        <v>0.07440889658451497</v>
       </c>
       <c r="C88">
-        <v>-0.0400332911465001</v>
+        <v>-0.0575524592347188</v>
       </c>
       <c r="D88">
-        <v>-0.04092728322216727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02711479667545716</v>
+      </c>
+      <c r="E88">
+        <v>0.03128349885107207</v>
+      </c>
+      <c r="F88">
+        <v>-0.00267861376138183</v>
+      </c>
+      <c r="G88">
+        <v>-0.01181979341940098</v>
+      </c>
+      <c r="H88">
+        <v>-0.01508646920473255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2063220253955037</v>
+        <v>0.2648186570234193</v>
       </c>
       <c r="C89">
-        <v>0.3607395457702059</v>
+        <v>0.3559844632132759</v>
       </c>
       <c r="D89">
-        <v>0.06993386375673863</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01452444828465044</v>
+      </c>
+      <c r="E89">
+        <v>0.06409299460571168</v>
+      </c>
+      <c r="F89">
+        <v>0.04571962270097617</v>
+      </c>
+      <c r="G89">
+        <v>0.02851112367615</v>
+      </c>
+      <c r="H89">
+        <v>-0.06023947796934954</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1980305684158077</v>
+        <v>0.2335308081110544</v>
       </c>
       <c r="C90">
-        <v>0.2880436123560431</v>
+        <v>0.2653594462021912</v>
       </c>
       <c r="D90">
-        <v>0.06178644024882859</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.007812743531359462</v>
+      </c>
+      <c r="E90">
+        <v>0.05589266556605366</v>
+      </c>
+      <c r="F90">
+        <v>-0.003528461873705533</v>
+      </c>
+      <c r="G90">
+        <v>-0.03642111805484655</v>
+      </c>
+      <c r="H90">
+        <v>-0.04993381145457505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1775715778554056</v>
+        <v>0.1680116811790756</v>
       </c>
       <c r="C91">
-        <v>-0.140899255671632</v>
+        <v>-0.1599200883952225</v>
       </c>
       <c r="D91">
-        <v>0.06013628560310568</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.083976861448725</v>
+      </c>
+      <c r="E91">
+        <v>0.09544815864771007</v>
+      </c>
+      <c r="F91">
+        <v>-0.01766161768976525</v>
+      </c>
+      <c r="G91">
+        <v>0.08820458817098673</v>
+      </c>
+      <c r="H91">
+        <v>0.1334692102371999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1664091861124884</v>
+        <v>0.2102823075268623</v>
       </c>
       <c r="C92">
-        <v>0.2876873177282146</v>
+        <v>0.2758202774419579</v>
       </c>
       <c r="D92">
-        <v>0.02081234089935731</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01336527665777017</v>
+      </c>
+      <c r="E92">
+        <v>0.08927763727250262</v>
+      </c>
+      <c r="F92">
+        <v>0.032967415399557</v>
+      </c>
+      <c r="G92">
+        <v>0.0004376705153693736</v>
+      </c>
+      <c r="H92">
+        <v>-0.03257271091396961</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2291317647705406</v>
+        <v>0.2577621802242773</v>
       </c>
       <c r="C93">
-        <v>0.3158046943148198</v>
+        <v>0.2780391757233456</v>
       </c>
       <c r="D93">
-        <v>0.03939338016108366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01316391360377718</v>
+      </c>
+      <c r="E93">
+        <v>0.02467058103634595</v>
+      </c>
+      <c r="F93">
+        <v>-0.03191175581811039</v>
+      </c>
+      <c r="G93">
+        <v>0.01376043174336895</v>
+      </c>
+      <c r="H93">
+        <v>-0.0122809911302807</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3859435474512923</v>
+        <v>0.3367792539866284</v>
       </c>
       <c r="C94">
-        <v>-0.2660150460216</v>
+        <v>-0.2572815871220385</v>
       </c>
       <c r="D94">
-        <v>0.4612882219169374</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4460100605104322</v>
+      </c>
+      <c r="E94">
+        <v>0.1119773297576064</v>
+      </c>
+      <c r="F94">
+        <v>0.02763811742809706</v>
+      </c>
+      <c r="G94">
+        <v>-0.6091309817317461</v>
+      </c>
+      <c r="H94">
+        <v>0.04822963340038004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08540054836756181</v>
+        <v>0.07301291131818223</v>
       </c>
       <c r="C95">
-        <v>-0.05937929464654754</v>
+        <v>-0.05951144045737747</v>
       </c>
       <c r="D95">
-        <v>-0.09448106108736373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08487426676421259</v>
+      </c>
+      <c r="E95">
+        <v>-0.08535201541582098</v>
+      </c>
+      <c r="F95">
+        <v>0.9097680921544961</v>
+      </c>
+      <c r="G95">
+        <v>0.0363000809301302</v>
+      </c>
+      <c r="H95">
+        <v>0.04943102857863928</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.179404467531861</v>
+        <v>0.1668791106801016</v>
       </c>
       <c r="C98">
-        <v>-0.01218450302896895</v>
+        <v>-0.05354672389260726</v>
       </c>
       <c r="D98">
-        <v>-0.1599335514614752</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1344871111490843</v>
+      </c>
+      <c r="E98">
+        <v>-0.2936051346760931</v>
+      </c>
+      <c r="F98">
+        <v>-0.07886689745945645</v>
+      </c>
+      <c r="G98">
+        <v>0.02689046549827905</v>
+      </c>
+      <c r="H98">
+        <v>0.01866356631107349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003915150030742693</v>
+        <v>0.006194780020965756</v>
       </c>
       <c r="C101">
-        <v>-0.01084887215721264</v>
+        <v>-0.02173672354754501</v>
       </c>
       <c r="D101">
-        <v>-0.06184941732852484</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07817905620979243</v>
+      </c>
+      <c r="E101">
+        <v>0.04677208501798938</v>
+      </c>
+      <c r="F101">
+        <v>-5.370430001958942e-05</v>
+      </c>
+      <c r="G101">
+        <v>0.01422348460386013</v>
+      </c>
+      <c r="H101">
+        <v>-0.1001896640339308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1268665944530859</v>
+        <v>0.1127084139564325</v>
       </c>
       <c r="C102">
-        <v>-0.1183099268885886</v>
+        <v>-0.1178241078045589</v>
       </c>
       <c r="D102">
-        <v>0.03108845880114806</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05081819931533422</v>
+      </c>
+      <c r="E102">
+        <v>0.03087519011979381</v>
+      </c>
+      <c r="F102">
+        <v>0.02002375245473348</v>
+      </c>
+      <c r="G102">
+        <v>0.05849243957142093</v>
+      </c>
+      <c r="H102">
+        <v>-0.007329328049803352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
